--- a/src/data/test_data_mv.xlsx
+++ b/src/data/test_data_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdem\Documents\Project Files\CSCI_6221_V\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC72A788-3B94-4970-9D22-6CC6B5363B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C226ED-03C3-4BC7-97B1-21D51A914C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="19416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>house_size_sqft</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>no_of_bedrooms</t>
+  </si>
+  <si>
+    <t>no_of_bathrooms</t>
   </si>
 </sst>
 </file>
@@ -882,20 +885,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="B2" sqref="B2:C546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -903,117 +907,7640 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
+        <v>7420</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>13300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4</v>
+        <v>8960</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>12250000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>9960</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>12250000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7500</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>12215000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7420</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>11410000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7500</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>10850000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8580</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>10150000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>16200</v>
+      </c>
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>10150000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8100</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>9870000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5750</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>9800000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>13200</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>9800000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6000</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>9681000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6550</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>9310000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3500</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>9240000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7800</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>9240000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6000</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>9100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6600</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>9100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8500</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>8960000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4600</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>8890000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>6420</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>8855000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4320</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>8750000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>7155</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>8680000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>8050</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>8645000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4560</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>8645000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>8800</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>8575000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6540</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>8540000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6000</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>8463000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>8875</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>8400000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>7950</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>8400000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5500</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>8400000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>7475</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>8400000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>7000</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>8400000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4880</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>8295000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5960</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>8190000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6840</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>8120000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>7000</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>8080940</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>7482</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>8043000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>9000</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>7980000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>6000</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>7962500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>6000</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>7910000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>6550</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>7875000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>6360</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>7840000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>6480</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>7700000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>6000</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>7700000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>6000</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>7560000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>6000</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>7560000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>6000</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>7525000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>6600</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>7490000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4300</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>7455000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>7440</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>7420000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>7440</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>7420000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>6325</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>7420000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>6000</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>7350000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>5150</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>7350000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>6000</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>7350000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>6000</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>7350000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>11440</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>7343000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>9000</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>7245000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>7680</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>7210000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>6000</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>7210000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>6000</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>7140000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>8880</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>7070000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6240</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>7070000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>6360</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>7035000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>11175</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>8880</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>6930000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>13200</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>6930000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>7700</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>6895000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>6000</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>6860000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>12090</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>6790000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>4000</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>6790000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>6000</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>6755000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>5020</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>6720000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>6600</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>6685000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>4040</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>6650000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>4260</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>6650000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>6420</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>6650000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>6500</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>6650000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>5700</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>6650000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>6000</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>6650000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>6000</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>6629000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>4000</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>6615000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>10500</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>6615000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>6000</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>6580000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>3760</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>6510000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>8250</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>6510000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>6670</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>6510000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>3960</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>6475000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>7410</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>6475000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>8580</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>6440000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>5000</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>6440000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>6750</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>6419000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>4800</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>6405000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>7200</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>6000</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>4100</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>9000</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>6400</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>6600</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>6293000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>6000</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>6265000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>6600</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>6230000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>5500</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>6230000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>5500</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>6195000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>6350</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>6195000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>5500</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>6195000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>4500</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>6160000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>5450</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>6160000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>6420</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>6125000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>3240</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>6107500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>6615</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>6090000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>6600</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>6090000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>8372</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>6090000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>4300</v>
+      </c>
+      <c r="B114">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6">
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>6083000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>9620</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>6083000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>6800</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>6020000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>8000</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>6020000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>6900</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>6020000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>3700</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>5950000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>6420</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>5950000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>7020</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>5950000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>6540</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>5950000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>7231</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>5950000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>6254</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>5950000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>7320</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>5950000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>6525</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>5950000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>15600</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>5943000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>7160</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>5880000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>6500</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>5880000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>5500</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>5873000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>11460</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>5873000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>4800</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>5866000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>5828</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>5810000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>5200</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>5810000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>4800</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>5810000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>7000</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>5803000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>6000</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>5775000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>5400</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>5740000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>4640</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>5740000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>5000</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>5740000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>6360</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>5740000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>5800</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>5740000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>6660</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>5652500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>10500</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>4800</v>
+      </c>
+      <c r="B145">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7">
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>4700</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>5000</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>10500</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>5500</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>6360</v>
+      </c>
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>6600</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>5136</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>4400</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>5565000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>5400</v>
+      </c>
+      <c r="B154">
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>5565000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>3300</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>5530000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>3650</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>5530000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>6100</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>5530000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>6900</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>5523000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>2817</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>5495000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>7980</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>5495000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>3150</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>5460000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>6210</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>5460000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>6100</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>5460000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>6600</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>5460000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>6825</v>
+      </c>
+      <c r="B165">
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>5425000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>6710</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166">
+        <v>5390000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>6450</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>5383000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>7800</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>5320000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>4600</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>5285000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>4260</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>5250000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>6540</v>
+      </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>5250000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>5500</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>5250000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>10269</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>5250000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>8400</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>5250000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>5300</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>5250000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>3800</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>5250000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>9800</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>5250000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>8520</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>5250000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>6050</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>5243000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>7085</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>5229000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>3180</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>5215000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>4500</v>
+      </c>
+      <c r="B182">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+      <c r="D182">
+        <v>5215000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>7200</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>5215000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>3410</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>5145000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>7980</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>5145000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>3000</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <v>5110000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>3000</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>5110000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>11410</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>5110000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>6100</v>
+      </c>
+      <c r="B189">
+        <v>3</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>5110000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>5720</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>5075000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>3540</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>5040000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>7600</v>
+      </c>
+      <c r="B192">
+        <v>4</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>5040000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>10700</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>5040000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>6600</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>5040000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>4800</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>5033000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>8150</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>5005000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>4410</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197">
+        <v>4970000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>7686</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>4970000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>2800</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <v>4956000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>5948</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>4935000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>4200</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>4907000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>4520</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>4095</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>4120</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>5400</v>
+      </c>
+      <c r="B205">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>4770</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>6300</v>
+      </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>5800</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>3000</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>2970</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>6720</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>4646</v>
+      </c>
+      <c r="B212">
+        <v>3</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>12900</v>
+      </c>
+      <c r="B213">
+        <v>3</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>3420</v>
+      </c>
+      <c r="B214">
+        <v>4</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>4893000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>4995</v>
+      </c>
+      <c r="B215">
+        <v>4</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>4893000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>4350</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>4865000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>4160</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>4830000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>6040</v>
+      </c>
+      <c r="B218">
+        <v>3</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>4830000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>6862</v>
+      </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>4830000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>4815</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>4830000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>7000</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>4795000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>8100</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>4795000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>3420</v>
+      </c>
+      <c r="B223">
+        <v>4</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <v>4767000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>9166</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>4760000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>6321</v>
+      </c>
+      <c r="B225">
+        <v>3</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>4760000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>10240</v>
+      </c>
+      <c r="B226">
+        <v>2</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>4760000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>6440</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>4753000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>5170</v>
+      </c>
+      <c r="B228">
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>4690000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>6000</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>4690000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>3630</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>4690000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>9667</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>4690000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>5400</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>4690000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>4320</v>
+      </c>
+      <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>4690000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>3745</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>4655000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>4160</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>4620000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>3880</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>4620000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>5680</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>4620000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>2870</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>4620000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>5010</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>4620000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>4510</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240">
+        <v>4613000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>4000</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>4585000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>3840</v>
+      </c>
+      <c r="B242">
+        <v>3</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>4585000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>3760</v>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>4550000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>3640</v>
+      </c>
+      <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>4550000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>2550</v>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>4550000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>5320</v>
+      </c>
+      <c r="B246">
+        <v>3</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>4550000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>5360</v>
+      </c>
+      <c r="B247">
+        <v>3</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>4550000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>3520</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>4550000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>8400</v>
+      </c>
+      <c r="B249">
+        <v>4</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>4550000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>4100</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+      <c r="C250">
+        <v>2</v>
+      </c>
+      <c r="D250">
+        <v>4543000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>4990</v>
+      </c>
+      <c r="B251">
+        <v>4</v>
+      </c>
+      <c r="C251">
+        <v>2</v>
+      </c>
+      <c r="D251">
+        <v>4543000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>3510</v>
+      </c>
+      <c r="B252">
+        <v>3</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>4515000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>3450</v>
+      </c>
+      <c r="B253">
+        <v>3</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>4515000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>9860</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>4515000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>3520</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>4515000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>4510</v>
+      </c>
+      <c r="B256">
+        <v>4</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>4480000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>5885</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>4480000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>4000</v>
+      </c>
+      <c r="B258">
+        <v>3</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>4480000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>8250</v>
+      </c>
+      <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>4480000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>4040</v>
+      </c>
+      <c r="B260">
+        <v>3</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>4480000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>6360</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>4473000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>3162</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>4473000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>3510</v>
+      </c>
+      <c r="B263">
+        <v>3</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>4473000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>3750</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>4445000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>3968</v>
+      </c>
+      <c r="B265">
+        <v>3</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>4410000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>4900</v>
+      </c>
+      <c r="B266">
+        <v>2</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>4410000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>2880</v>
+      </c>
+      <c r="B267">
+        <v>3</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>4403000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>4880</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>4403000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>4920</v>
+      </c>
+      <c r="B269">
+        <v>3</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>4403000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>4950</v>
+      </c>
+      <c r="B270">
+        <v>4</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>4382000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>3900</v>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>4375000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>4500</v>
+      </c>
+      <c r="B272">
+        <v>3</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272">
+        <v>4340000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>1905</v>
+      </c>
+      <c r="B273">
+        <v>5</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>4340000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>4075</v>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>4340000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>3500</v>
+      </c>
+      <c r="B275">
+        <v>4</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>4340000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>6450</v>
+      </c>
+      <c r="B276">
+        <v>4</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>4340000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>4032</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>4319000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>4400</v>
+      </c>
+      <c r="B278">
+        <v>2</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>4305000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>10360</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>4305000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>3400</v>
+      </c>
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>4277000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>6360</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>4270000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>6360</v>
+      </c>
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>4270000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>4500</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>4270000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>2175</v>
+      </c>
+      <c r="B284">
+        <v>3</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>4270000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>4360</v>
+      </c>
+      <c r="B285">
+        <v>4</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>4270000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>7770</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>4270000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>6650</v>
+      </c>
+      <c r="B287">
+        <v>3</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <v>4235000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>2787</v>
+      </c>
+      <c r="B288">
+        <v>3</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>4235000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>5500</v>
+      </c>
+      <c r="B289">
+        <v>3</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>5040</v>
+      </c>
+      <c r="B290">
+        <v>3</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>5850</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>2610</v>
+      </c>
+      <c r="B292">
+        <v>4</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+      <c r="D292">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>2953</v>
+      </c>
+      <c r="B293">
+        <v>3</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>2747</v>
+      </c>
+      <c r="B294">
+        <v>4</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+      <c r="D294">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>4410</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>4000</v>
+      </c>
+      <c r="B296">
+        <v>4</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+      <c r="D296">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>2325</v>
+      </c>
+      <c r="B297">
+        <v>3</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>4600</v>
+      </c>
+      <c r="B298">
+        <v>3</v>
+      </c>
+      <c r="C298">
+        <v>2</v>
+      </c>
+      <c r="D298">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>3640</v>
+      </c>
+      <c r="B299">
+        <v>3</v>
+      </c>
+      <c r="C299">
+        <v>2</v>
+      </c>
+      <c r="D299">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>5800</v>
+      </c>
+      <c r="B300">
+        <v>3</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>7000</v>
+      </c>
+      <c r="B301">
+        <v>3</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>4079</v>
+      </c>
+      <c r="B302">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>3520</v>
+      </c>
+      <c r="B303">
+        <v>3</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>2145</v>
+      </c>
+      <c r="B304">
+        <v>3</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>4500</v>
+      </c>
+      <c r="B305">
+        <v>3</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>8250</v>
+      </c>
+      <c r="B306">
+        <v>3</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>4193000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>3450</v>
+      </c>
+      <c r="B307">
+        <v>3</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>4193000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>4840</v>
+      </c>
+      <c r="B308">
+        <v>3</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>4165000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>4080</v>
+      </c>
+      <c r="B309">
+        <v>3</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>4165000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>4046</v>
+      </c>
+      <c r="B310">
+        <v>3</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>4165000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>4632</v>
+      </c>
+      <c r="B311">
+        <v>4</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>4130000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>5985</v>
+      </c>
+      <c r="B312">
+        <v>3</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>4130000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>6060</v>
+      </c>
+      <c r="B313">
+        <v>2</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>4123000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>3600</v>
+      </c>
+      <c r="B314">
+        <v>3</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>4098500</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>3680</v>
+      </c>
+      <c r="B315">
+        <v>3</v>
+      </c>
+      <c r="C315">
+        <v>2</v>
+      </c>
+      <c r="D315">
+        <v>4095000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>4040</v>
+      </c>
+      <c r="B316">
+        <v>2</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>4095000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>5600</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>4095000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>5900</v>
+      </c>
+      <c r="B318">
+        <v>4</v>
+      </c>
+      <c r="C318">
+        <v>2</v>
+      </c>
+      <c r="D318">
+        <v>4060000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>4992</v>
+      </c>
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319">
+        <v>2</v>
+      </c>
+      <c r="D319">
+        <v>4060000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>4340</v>
+      </c>
+      <c r="B320">
+        <v>3</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>4060000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>3000</v>
+      </c>
+      <c r="B321">
+        <v>4</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>4060000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>4320</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>4060000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>3630</v>
+      </c>
+      <c r="B323">
+        <v>3</v>
+      </c>
+      <c r="C323">
+        <v>2</v>
+      </c>
+      <c r="D323">
+        <v>4025000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>3460</v>
+      </c>
+      <c r="B324">
+        <v>3</v>
+      </c>
+      <c r="C324">
+        <v>2</v>
+      </c>
+      <c r="D324">
+        <v>4025000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>5400</v>
+      </c>
+      <c r="B325">
+        <v>3</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>4025000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>4500</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>4007500</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>3460</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>4007500</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>4100</v>
+      </c>
+      <c r="B328">
+        <v>4</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>3990000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>6480</v>
+      </c>
+      <c r="B329">
+        <v>3</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>3990000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>4500</v>
+      </c>
+      <c r="B330">
+        <v>3</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+      <c r="D330">
+        <v>3990000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>3960</v>
+      </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>3990000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>4050</v>
+      </c>
+      <c r="B332">
+        <v>2</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>3990000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>7260</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+      <c r="C333">
+        <v>2</v>
+      </c>
+      <c r="D333">
+        <v>3920000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>5500</v>
+      </c>
+      <c r="B334">
+        <v>4</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>3920000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>3000</v>
+      </c>
+      <c r="B335">
+        <v>3</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>3920000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>3290</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>3920000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>3816</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>3920000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>8080</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>3920000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>2145</v>
+      </c>
+      <c r="B339">
+        <v>4</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+      <c r="D339">
+        <v>3920000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>3780</v>
+      </c>
+      <c r="B340">
+        <v>2</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>3885000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>3180</v>
+      </c>
+      <c r="B341">
+        <v>4</v>
+      </c>
+      <c r="C341">
+        <v>2</v>
+      </c>
+      <c r="D341">
+        <v>3885000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>5300</v>
+      </c>
+      <c r="B342">
+        <v>5</v>
+      </c>
+      <c r="C342">
+        <v>2</v>
+      </c>
+      <c r="D342">
+        <v>3850000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>3180</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+      <c r="C343">
+        <v>2</v>
+      </c>
+      <c r="D343">
+        <v>3850000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>7152</v>
+      </c>
+      <c r="B344">
+        <v>3</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>3850000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>4080</v>
+      </c>
+      <c r="B345">
+        <v>2</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>3850000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>3850</v>
+      </c>
+      <c r="B346">
+        <v>2</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>3850000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>2015</v>
+      </c>
+      <c r="B347">
+        <v>3</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>3850000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>2176</v>
+      </c>
+      <c r="B348">
+        <v>2</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>3850000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>3350</v>
+      </c>
+      <c r="B349">
+        <v>3</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>3836000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>3150</v>
+      </c>
+      <c r="B350">
+        <v>2</v>
+      </c>
+      <c r="C350">
+        <v>2</v>
+      </c>
+      <c r="D350">
+        <v>3815000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>4820</v>
+      </c>
+      <c r="B351">
+        <v>3</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>3780000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>3420</v>
+      </c>
+      <c r="B352">
+        <v>2</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>3780000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>3600</v>
+      </c>
+      <c r="B353">
+        <v>2</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>3780000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>5830</v>
+      </c>
+      <c r="B354">
+        <v>2</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>3780000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>2856</v>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>3780000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>8400</v>
+      </c>
+      <c r="B356">
+        <v>2</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>3780000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>8250</v>
+      </c>
+      <c r="B357">
+        <v>3</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>3773000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>2520</v>
+      </c>
+      <c r="B358">
+        <v>5</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+      <c r="D358">
+        <v>3773000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>6930</v>
+      </c>
+      <c r="B359">
+        <v>4</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>3773000</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>3480</v>
+      </c>
+      <c r="B360">
+        <v>2</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>3745000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>3600</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>3710000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>4040</v>
+      </c>
+      <c r="B362">
+        <v>2</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>3710000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>6020</v>
+      </c>
+      <c r="B363">
+        <v>3</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>3710000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>4050</v>
+      </c>
+      <c r="B364">
+        <v>2</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>3710000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>3584</v>
+      </c>
+      <c r="B365">
+        <v>2</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>3710000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>3120</v>
+      </c>
+      <c r="B366">
+        <v>3</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>3703000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>5450</v>
+      </c>
+      <c r="B367">
+        <v>2</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>3703000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>3630</v>
+      </c>
+      <c r="B368">
+        <v>2</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>3675000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>3630</v>
+      </c>
+      <c r="B369">
+        <v>2</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>3675000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>5640</v>
+      </c>
+      <c r="B370">
+        <v>2</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>3675000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>3600</v>
+      </c>
+      <c r="B371">
+        <v>2</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>3675000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>4280</v>
+      </c>
+      <c r="B372">
+        <v>2</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>3640000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>3570</v>
+      </c>
+      <c r="B373">
+        <v>3</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>3640000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>3180</v>
+      </c>
+      <c r="B374">
+        <v>3</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>3640000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>3000</v>
+      </c>
+      <c r="B375">
+        <v>2</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>3640000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>3520</v>
+      </c>
+      <c r="B376">
+        <v>2</v>
+      </c>
+      <c r="C376">
+        <v>2</v>
+      </c>
+      <c r="D376">
+        <v>3640000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>5960</v>
+      </c>
+      <c r="B377">
+        <v>3</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>3640000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>4130</v>
+      </c>
+      <c r="B378">
+        <v>3</v>
+      </c>
+      <c r="C378">
+        <v>2</v>
+      </c>
+      <c r="D378">
+        <v>3640000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>2850</v>
+      </c>
+      <c r="B379">
+        <v>3</v>
+      </c>
+      <c r="C379">
+        <v>2</v>
+      </c>
+      <c r="D379">
+        <v>3640000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>2275</v>
+      </c>
+      <c r="B380">
+        <v>3</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>3640000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>3520</v>
+      </c>
+      <c r="B381">
+        <v>3</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>3633000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>4500</v>
+      </c>
+      <c r="B382">
+        <v>2</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>3605000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>4000</v>
+      </c>
+      <c r="B383">
+        <v>2</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383">
+        <v>3605000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>3150</v>
+      </c>
+      <c r="B384">
+        <v>3</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>3570000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>4500</v>
+      </c>
+      <c r="B385">
+        <v>4</v>
+      </c>
+      <c r="C385">
+        <v>2</v>
+      </c>
+      <c r="D385">
+        <v>3570000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>4500</v>
+      </c>
+      <c r="B386">
+        <v>2</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>3570000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>3640</v>
+      </c>
+      <c r="B387">
+        <v>2</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>3570000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>3850</v>
+      </c>
+      <c r="B388">
+        <v>3</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>3535000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>4240</v>
+      </c>
+      <c r="B389">
+        <v>3</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>3650</v>
+      </c>
+      <c r="B390">
+        <v>3</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>4600</v>
+      </c>
+      <c r="B391">
+        <v>4</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>2135</v>
+      </c>
+      <c r="B392">
+        <v>3</v>
+      </c>
+      <c r="C392">
+        <v>2</v>
+      </c>
+      <c r="D392">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>3036</v>
+      </c>
+      <c r="B393">
+        <v>3</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>3990</v>
+      </c>
+      <c r="B394">
+        <v>3</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>7424</v>
+      </c>
+      <c r="B395">
+        <v>3</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>3480</v>
+      </c>
+      <c r="B396">
+        <v>3</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>3600</v>
+      </c>
+      <c r="B397">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1250</v>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>3640</v>
+      </c>
+      <c r="B398">
+        <v>2</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>5900</v>
+      </c>
+      <c r="B399">
+        <v>2</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>3120</v>
+      </c>
+      <c r="B400">
+        <v>3</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>7350</v>
+      </c>
+      <c r="B401">
+        <v>2</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+      <c r="D401">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>3512</v>
+      </c>
+      <c r="B402">
+        <v>2</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>9500</v>
+      </c>
+      <c r="B403">
+        <v>3</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>5880</v>
+      </c>
+      <c r="B404">
+        <v>2</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>12944</v>
+      </c>
+      <c r="B405">
+        <v>3</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>4900</v>
+      </c>
+      <c r="B406">
+        <v>3</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406">
+        <v>3493000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>3060</v>
+      </c>
+      <c r="B407">
+        <v>3</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407">
+        <v>3465000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>5320</v>
+      </c>
+      <c r="B408">
+        <v>2</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408">
+        <v>3465000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>2145</v>
+      </c>
+      <c r="B409">
+        <v>3</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409">
+        <v>3465000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>4000</v>
+      </c>
+      <c r="B410">
+        <v>2</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>3430000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>3185</v>
+      </c>
+      <c r="B411">
+        <v>2</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411">
+        <v>3430000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>3850</v>
+      </c>
+      <c r="B412">
+        <v>3</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412">
+        <v>3430000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>2145</v>
+      </c>
+      <c r="B413">
+        <v>3</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413">
+        <v>3430000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>2610</v>
+      </c>
+      <c r="B414">
+        <v>3</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414">
+        <v>3430000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>1950</v>
+      </c>
+      <c r="B415">
+        <v>3</v>
+      </c>
+      <c r="C415">
+        <v>2</v>
+      </c>
+      <c r="D415">
+        <v>3430000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>4040</v>
+      </c>
+      <c r="B416">
+        <v>2</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416">
+        <v>3423000</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>4785</v>
+      </c>
+      <c r="B417">
+        <v>3</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417">
+        <v>3395000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>3450</v>
+      </c>
+      <c r="B418">
+        <v>3</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="D418">
+        <v>3395000</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>3640</v>
+      </c>
+      <c r="B419">
+        <v>2</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419">
+        <v>3395000</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>3500</v>
+      </c>
+      <c r="B420">
+        <v>4</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420">
+        <v>3360000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>4960</v>
+      </c>
+      <c r="B421">
+        <v>4</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421">
+        <v>3360000</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>4120</v>
+      </c>
+      <c r="B422">
+        <v>2</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422">
+        <v>3360000</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>4750</v>
+      </c>
+      <c r="B423">
+        <v>2</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423">
+        <v>3360000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>3720</v>
+      </c>
+      <c r="B424">
+        <v>2</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="D424">
+        <v>3360000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>3750</v>
+      </c>
+      <c r="B425">
+        <v>3</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425">
+        <v>3360000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>3100</v>
+      </c>
+      <c r="B426">
+        <v>3</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+      <c r="D426">
+        <v>3360000</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>3185</v>
+      </c>
+      <c r="B427">
+        <v>2</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427">
+        <v>3360000</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>2700</v>
+      </c>
+      <c r="B428">
+        <v>3</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428">
+        <v>3353000</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>2145</v>
+      </c>
+      <c r="B429">
+        <v>3</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429">
+        <v>3332000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>4040</v>
+      </c>
+      <c r="B430">
+        <v>2</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430">
+        <v>3325000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>4775</v>
+      </c>
+      <c r="B431">
+        <v>4</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431">
+        <v>3325000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>2500</v>
+      </c>
+      <c r="B432">
+        <v>2</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432">
+        <v>3290000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>3180</v>
+      </c>
+      <c r="B433">
+        <v>4</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433">
+        <v>3290000</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>6060</v>
+      </c>
+      <c r="B434">
+        <v>3</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434">
+        <v>3290000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>3480</v>
+      </c>
+      <c r="B435">
+        <v>4</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435">
+        <v>3290000</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>3792</v>
+      </c>
+      <c r="B436">
+        <v>4</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436">
+        <v>3290000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>4040</v>
+      </c>
+      <c r="B437">
+        <v>2</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437">
+        <v>3290000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>2145</v>
+      </c>
+      <c r="B438">
+        <v>3</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438">
+        <v>3290000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>5880</v>
+      </c>
+      <c r="B439">
+        <v>3</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439">
+        <v>3290000</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>4500</v>
+      </c>
+      <c r="B440">
+        <v>2</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440">
+        <v>3255000</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>3930</v>
+      </c>
+      <c r="B441">
+        <v>2</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441">
+        <v>3255000</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>3640</v>
+      </c>
+      <c r="B442">
+        <v>4</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442">
+        <v>3234000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>4370</v>
+      </c>
+      <c r="B443">
+        <v>3</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443">
+        <v>3220000</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>2684</v>
+      </c>
+      <c r="B444">
+        <v>2</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444">
+        <v>3220000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>4320</v>
+      </c>
+      <c r="B445">
+        <v>3</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445">
+        <v>3220000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>3120</v>
+      </c>
+      <c r="B446">
+        <v>3</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446">
+        <v>3220000</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>3450</v>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447">
+        <v>3150000</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>3986</v>
+      </c>
+      <c r="B448">
+        <v>2</v>
+      </c>
+      <c r="C448">
+        <v>2</v>
+      </c>
+      <c r="D448">
+        <v>3150000</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>3500</v>
+      </c>
+      <c r="B449">
+        <v>2</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449">
+        <v>3150000</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>4095</v>
+      </c>
+      <c r="B450">
+        <v>2</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450">
+        <v>3150000</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>1650</v>
+      </c>
+      <c r="B451">
+        <v>3</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451">
+        <v>3150000</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>3450</v>
+      </c>
+      <c r="B452">
+        <v>3</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452">
+        <v>3150000</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>6750</v>
+      </c>
+      <c r="B453">
+        <v>2</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453">
+        <v>3150000</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>9000</v>
+      </c>
+      <c r="B454">
+        <v>3</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454">
+        <v>3150000</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>3069</v>
+      </c>
+      <c r="B455">
+        <v>2</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455">
+        <v>3150000</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>4500</v>
+      </c>
+      <c r="B456">
+        <v>3</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456">
+        <v>3143000</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>5495</v>
+      </c>
+      <c r="B457">
+        <v>3</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457">
+        <v>3129000</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>2398</v>
+      </c>
+      <c r="B458">
+        <v>3</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458">
+        <v>3118850</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>3000</v>
+      </c>
+      <c r="B459">
+        <v>3</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459">
+        <v>3115000</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>3850</v>
+      </c>
+      <c r="B460">
+        <v>3</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460">
+        <v>3115000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>3500</v>
+      </c>
+      <c r="B461">
+        <v>2</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461">
+        <v>3115000</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>8100</v>
+      </c>
+      <c r="B462">
+        <v>2</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462">
+        <v>3087000</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>4960</v>
+      </c>
+      <c r="B463">
+        <v>2</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463">
+        <v>3080000</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>2160</v>
+      </c>
+      <c r="B464">
+        <v>3</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464">
+        <v>3080000</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>3090</v>
+      </c>
+      <c r="B465">
+        <v>2</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465">
+        <v>3080000</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>4500</v>
+      </c>
+      <c r="B466">
+        <v>2</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466">
+        <v>3080000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>3800</v>
+      </c>
+      <c r="B467">
+        <v>2</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467">
+        <v>3045000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>3090</v>
+      </c>
+      <c r="B468">
+        <v>3</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468">
+        <v>3010000</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>3240</v>
+      </c>
+      <c r="B469">
+        <v>3</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469">
+        <v>3010000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>2835</v>
+      </c>
+      <c r="B470">
+        <v>2</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470">
+        <v>3010000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>4600</v>
+      </c>
+      <c r="B471">
+        <v>2</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="D471">
+        <v>3010000</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>5076</v>
+      </c>
+      <c r="B472">
+        <v>3</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472">
+        <v>3010000</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>3750</v>
+      </c>
+      <c r="B473">
+        <v>3</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473">
+        <v>3010000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>3630</v>
+      </c>
+      <c r="B474">
+        <v>4</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474">
+        <v>3010000</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>8050</v>
+      </c>
+      <c r="B475">
+        <v>2</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475">
+        <v>3003000</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>4352</v>
+      </c>
+      <c r="B476">
+        <v>4</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+      <c r="D476">
+        <v>2975000</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>3000</v>
+      </c>
+      <c r="B477">
+        <v>2</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477">
+        <v>2961000</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>5850</v>
+      </c>
+      <c r="B478">
+        <v>3</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+      <c r="D478">
+        <v>2940000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>4960</v>
+      </c>
+      <c r="B479">
+        <v>2</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479">
+        <v>2940000</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>3600</v>
+      </c>
+      <c r="B480">
+        <v>3</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480">
+        <v>2940000</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>3660</v>
+      </c>
+      <c r="B481">
+        <v>4</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481">
+        <v>2940000</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>3480</v>
+      </c>
+      <c r="B482">
+        <v>3</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482">
+        <v>2940000</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>2700</v>
+      </c>
+      <c r="B483">
+        <v>2</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483">
+        <v>2940000</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>3150</v>
+      </c>
+      <c r="B484">
+        <v>3</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484">
+        <v>2940000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>6615</v>
+      </c>
+      <c r="B485">
+        <v>3</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485">
+        <v>2940000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>3040</v>
+      </c>
+      <c r="B486">
+        <v>2</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486">
+        <v>2870000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>3630</v>
+      </c>
+      <c r="B487">
+        <v>2</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487">
+        <v>2870000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>6000</v>
+      </c>
+      <c r="B488">
+        <v>2</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488">
+        <v>2870000</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>5400</v>
+      </c>
+      <c r="B489">
+        <v>4</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489">
+        <v>2870000</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>5200</v>
+      </c>
+      <c r="B490">
+        <v>4</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490">
+        <v>2852500</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>3300</v>
+      </c>
+      <c r="B491">
+        <v>3</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491">
+        <v>2835000</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>4350</v>
+      </c>
+      <c r="B492">
+        <v>3</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492">
+        <v>2835000</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>2640</v>
+      </c>
+      <c r="B493">
+        <v>2</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493">
+        <v>2835000</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>2650</v>
+      </c>
+      <c r="B494">
+        <v>3</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>3960</v>
+      </c>
+      <c r="B495">
+        <v>3</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>6800</v>
+      </c>
+      <c r="B496">
+        <v>2</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496">
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>4000</v>
+      </c>
+      <c r="B497">
+        <v>3</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497">
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>4000</v>
+      </c>
+      <c r="B498">
+        <v>2</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498">
+        <v>2695000</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>3934</v>
+      </c>
+      <c r="B499">
+        <v>2</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499">
+        <v>2660000</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>2000</v>
+      </c>
+      <c r="B500">
+        <v>2</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="D500">
+        <v>2660000</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>3630</v>
+      </c>
+      <c r="B501">
+        <v>3</v>
+      </c>
+      <c r="C501">
+        <v>3</v>
+      </c>
+      <c r="D501">
+        <v>2660000</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>2800</v>
+      </c>
+      <c r="B502">
+        <v>3</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502">
+        <v>2660000</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>2430</v>
+      </c>
+      <c r="B503">
+        <v>3</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503">
+        <v>2660000</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>3480</v>
+      </c>
+      <c r="B504">
+        <v>2</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504">
+        <v>2660000</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>4000</v>
+      </c>
+      <c r="B505">
+        <v>3</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505">
+        <v>2660000</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>3185</v>
+      </c>
+      <c r="B506">
+        <v>2</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+      <c r="D506">
+        <v>2653000</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>4000</v>
+      </c>
+      <c r="B507">
+        <v>3</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507">
+        <v>2653000</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>2910</v>
+      </c>
+      <c r="B508">
+        <v>2</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508">
+        <v>2604000</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>3600</v>
+      </c>
+      <c r="B509">
+        <v>2</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509">
+        <v>2590000</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>4400</v>
+      </c>
+      <c r="B510">
+        <v>2</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510">
+        <v>2590000</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>3600</v>
+      </c>
+      <c r="B511">
+        <v>2</v>
+      </c>
+      <c r="C511">
+        <v>2</v>
+      </c>
+      <c r="D511">
+        <v>2590000</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>2880</v>
+      </c>
+      <c r="B512">
+        <v>3</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512">
+        <v>2520000</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>3180</v>
+      </c>
+      <c r="B513">
+        <v>3</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513">
+        <v>2520000</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>3000</v>
+      </c>
+      <c r="B514">
+        <v>2</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514">
+        <v>2520000</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>4400</v>
+      </c>
+      <c r="B515">
+        <v>3</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515">
+        <v>2485000</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>3000</v>
+      </c>
+      <c r="B516">
+        <v>3</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+      <c r="D516">
+        <v>2485000</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>3210</v>
+      </c>
+      <c r="B517">
+        <v>3</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+      <c r="D517">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>3240</v>
+      </c>
+      <c r="B518">
+        <v>2</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+      <c r="D518">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>3000</v>
+      </c>
+      <c r="B519">
+        <v>2</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+      <c r="D519">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>3500</v>
+      </c>
+      <c r="B520">
+        <v>2</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="D520">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>4840</v>
+      </c>
+      <c r="B521">
+        <v>2</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+      <c r="D521">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>7700</v>
+      </c>
+      <c r="B522">
+        <v>2</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+      <c r="D522">
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>3635</v>
+      </c>
+      <c r="B523">
+        <v>2</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+      <c r="D523">
+        <v>2408000</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>2475</v>
+      </c>
+      <c r="B524">
+        <v>3</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524">
+        <v>2380000</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>2787</v>
+      </c>
+      <c r="B525">
+        <v>4</v>
+      </c>
+      <c r="C525">
+        <v>2</v>
+      </c>
+      <c r="D525">
+        <v>2380000</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>3264</v>
+      </c>
+      <c r="B526">
+        <v>2</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+      <c r="D526">
+        <v>2380000</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>3640</v>
+      </c>
+      <c r="B527">
+        <v>2</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+      <c r="D527">
+        <v>2345000</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>3180</v>
+      </c>
+      <c r="B528">
+        <v>2</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+      <c r="D528">
+        <v>2310000</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>1836</v>
+      </c>
+      <c r="B529">
+        <v>2</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+      <c r="D529">
+        <v>2275000</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>3970</v>
+      </c>
+      <c r="B530">
+        <v>1</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530">
+        <v>2275000</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>3970</v>
+      </c>
+      <c r="B531">
+        <v>3</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+      <c r="D531">
+        <v>2275000</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>1950</v>
+      </c>
+      <c r="B532">
+        <v>3</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+      <c r="D532">
+        <v>2240000</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>5300</v>
+      </c>
+      <c r="B533">
+        <v>3</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533">
+        <v>2233000</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>3000</v>
+      </c>
+      <c r="B534">
+        <v>2</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534">
+        <v>2135000</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>2400</v>
+      </c>
+      <c r="B535">
+        <v>3</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>3000</v>
+      </c>
+      <c r="B536">
+        <v>4</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+      <c r="D536">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>3360</v>
+      </c>
+      <c r="B537">
+        <v>2</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+      <c r="D537">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>3420</v>
+      </c>
+      <c r="B538">
+        <v>5</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+      <c r="D538">
+        <v>1960000</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>1700</v>
+      </c>
+      <c r="B539">
+        <v>3</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+      <c r="D539">
+        <v>1890000</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>3649</v>
+      </c>
+      <c r="B540">
+        <v>2</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+      <c r="D540">
+        <v>1890000</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>2990</v>
+      </c>
+      <c r="B541">
+        <v>2</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+      <c r="D541">
+        <v>1855000</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>3000</v>
+      </c>
+      <c r="B542">
+        <v>2</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+      <c r="D542">
+        <v>1820000</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>2400</v>
+      </c>
+      <c r="B543">
+        <v>3</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543">
+        <v>1767150</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>3620</v>
+      </c>
+      <c r="B544">
+        <v>2</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+      <c r="D544">
+        <v>1750000</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>2910</v>
+      </c>
+      <c r="B545">
+        <v>3</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+      <c r="D545">
+        <v>1750000</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>3850</v>
+      </c>
+      <c r="B546">
+        <v>3</v>
+      </c>
+      <c r="C546">
+        <v>1</v>
+      </c>
+      <c r="D546">
+        <v>1750000</v>
       </c>
     </row>
   </sheetData>
